--- a/Camera Trade Studies.xlsx
+++ b/Camera Trade Studies.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1248,14 +1248,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49.5" bestFit="1" customWidth="1"/>
